--- a/surgery_and_outreach-data_total.xlsx
+++ b/surgery_and_outreach-data_total.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="103">
   <si>
     <t>Total Cataract Surgery</t>
   </si>
@@ -307,6 +307,27 @@
   </si>
   <si>
     <t>Outreach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cataract Surgeries: </t>
+  </si>
+  <si>
+    <t>Total Cataract Screenings:</t>
+  </si>
+  <si>
+    <t>Total Glaucoma Surgeries</t>
+  </si>
+  <si>
+    <t>Total Glaucoma Patients</t>
+  </si>
+  <si>
+    <t>Vitamin A Caps distributed</t>
+  </si>
+  <si>
+    <t>Grauer Stahr</t>
+  </si>
+  <si>
+    <t>Schielen</t>
   </si>
 </sst>
 </file>
@@ -365,15 +386,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -409,11 +442,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -433,11 +492,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -445,9 +509,45 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
   </dxfs>
@@ -466,13 +566,13 @@
   <tableColumns count="9">
     <tableColumn id="1" name="entity"/>
     <tableColumn id="2" name="_"/>
-    <tableColumn id="3" name="_4-12"/>
-    <tableColumn id="4" name="_12-12"/>
-    <tableColumn id="5" name="_03-13"/>
-    <tableColumn id="6" name="_09-13"/>
-    <tableColumn id="7" name="_04-14"/>
-    <tableColumn id="8" name="__"/>
-    <tableColumn id="9" name="TOTAL" dataDxfId="1">
+    <tableColumn id="3" name="_4-12" dataDxfId="13"/>
+    <tableColumn id="4" name="_12-12" dataDxfId="12"/>
+    <tableColumn id="5" name="_03-13" dataDxfId="11"/>
+    <tableColumn id="6" name="_09-13" dataDxfId="10"/>
+    <tableColumn id="7" name="_04-14" dataDxfId="9"/>
+    <tableColumn id="8" name="__" dataDxfId="8"/>
+    <tableColumn id="9" name="TOTAL" dataDxfId="7">
       <calculatedColumnFormula>SUM(C4:G4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -486,12 +586,12 @@
   <tableColumns count="9">
     <tableColumn id="1" name="entity"/>
     <tableColumn id="2" name="_"/>
-    <tableColumn id="3" name="_4-12"/>
-    <tableColumn id="4" name="_12-12"/>
-    <tableColumn id="5" name="_03-13"/>
-    <tableColumn id="6" name="_09-13"/>
-    <tableColumn id="7" name="_04-14"/>
-    <tableColumn id="8" name="__"/>
+    <tableColumn id="3" name="_4-12" dataDxfId="6"/>
+    <tableColumn id="4" name="_12-12" dataDxfId="5"/>
+    <tableColumn id="5" name="_03-13" dataDxfId="4"/>
+    <tableColumn id="6" name="_09-13" dataDxfId="3"/>
+    <tableColumn id="7" name="_04-14" dataDxfId="2"/>
+    <tableColumn id="8" name="__" dataDxfId="1"/>
     <tableColumn id="9" name="TOTAL" dataDxfId="0">
       <calculatedColumnFormula>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</calculatedColumnFormula>
     </tableColumn>
@@ -787,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I61"/>
+  <dimension ref="A2:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,21 +937,22 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>524</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>417</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>203</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>344</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>324</v>
       </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="8">
         <f>SUM(C4:G4)</f>
         <v>1812</v>
@@ -861,21 +962,22 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>224</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>178</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>86</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>143</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>135</v>
       </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="8">
         <f t="shared" ref="I5:I34" si="0">SUM(C5:G5)</f>
         <v>766</v>
@@ -885,21 +987,22 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>284</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>222</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>101</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>191</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>170</v>
       </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="8">
         <f t="shared" si="0"/>
         <v>968</v>
@@ -909,21 +1012,22 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>10</v>
       </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -933,21 +1037,22 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <v>9</v>
       </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -957,21 +1062,22 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -981,21 +1087,22 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>0</v>
       </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1005,12 +1112,16 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
       <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1020,9 +1131,14 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="G12">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
         <v>0</v>
       </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1032,9 +1148,14 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="G13">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
         <v>0</v>
       </c>
+      <c r="H13" s="9"/>
       <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1044,21 +1165,22 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>527</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>418</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>204</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <v>346</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="9">
         <v>325</v>
       </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="8">
         <f t="shared" si="0"/>
         <v>1820</v>
@@ -1068,21 +1190,22 @@
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <v>29</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>19</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <v>10</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
         <v>17</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="9">
         <v>13</v>
       </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="8">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -1092,21 +1215,22 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="9">
         <v>20</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="9">
         <v>28</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="9">
         <v>18</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="9">
         <v>29</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="9">
         <v>26</v>
       </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="8">
         <f t="shared" si="0"/>
         <v>121</v>
@@ -1116,21 +1240,22 @@
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <v>29</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="9">
         <v>9</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
         <v>8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="9">
         <v>7</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="9">
         <v>9</v>
       </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="8">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1140,21 +1265,22 @@
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
         <v>103</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="9">
         <v>89</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>91</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <v>61</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="9">
         <v>108</v>
       </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="8">
         <f t="shared" si="0"/>
         <v>452</v>
@@ -1164,21 +1290,22 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
         <v>115</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="9">
         <v>100</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>122</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <v>73</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="9">
         <v>136</v>
       </c>
+      <c r="H19" s="9"/>
       <c r="I19" s="8">
         <f t="shared" si="0"/>
         <v>546</v>
@@ -1188,21 +1315,22 @@
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="9">
         <v>44</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="9">
         <v>41</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="9">
         <v>123</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="9">
         <v>57</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="9">
         <v>201</v>
       </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="8">
         <f t="shared" si="0"/>
         <v>466</v>
@@ -1212,21 +1340,22 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="9">
         <v>556</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="9">
         <v>437</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="9">
         <v>214</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="9">
         <v>363</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="9">
         <v>401</v>
       </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="8">
         <f t="shared" si="0"/>
         <v>1971</v>
@@ -1236,21 +1365,22 @@
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="9">
         <v>307</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="9">
         <v>269</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="9">
         <v>317</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="9">
         <v>227</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="9">
         <v>545</v>
       </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="8">
         <f t="shared" si="0"/>
         <v>1665</v>
@@ -1260,21 +1390,22 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="9">
         <v>863</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="9">
         <v>706</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="9">
         <v>531</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="9">
         <v>590</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="9">
         <v>286</v>
       </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="8">
         <f t="shared" si="0"/>
         <v>2976</v>
@@ -1284,9 +1415,14 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="G24">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
         <v>0</v>
       </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1296,9 +1432,14 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="G25">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
         <v>0</v>
       </c>
+      <c r="H25" s="9"/>
       <c r="I25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1308,9 +1449,14 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="G26">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
         <v>0</v>
       </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1320,12 +1466,16 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="9">
         <v>12</v>
       </c>
-      <c r="G27">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
         <v>54</v>
       </c>
+      <c r="H27" s="9"/>
       <c r="I27" s="8">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1335,21 +1485,22 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="9">
         <v>221</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="9">
         <v>151</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <v>53</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="9">
         <v>112</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="9">
         <v>168</v>
       </c>
+      <c r="H28" s="9"/>
       <c r="I28" s="8">
         <f t="shared" si="0"/>
         <v>705</v>
@@ -1359,21 +1510,22 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="9">
         <v>284</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="9">
         <v>265</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="9">
         <v>151</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="9">
         <v>234</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="9">
         <v>132</v>
       </c>
+      <c r="H29" s="9"/>
       <c r="I29" s="8">
         <f t="shared" si="0"/>
         <v>1066</v>
@@ -1383,9 +1535,14 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="G30">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
         <v>161</v>
       </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="8">
         <f t="shared" si="0"/>
         <v>161</v>
@@ -1395,18 +1552,20 @@
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="D31">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9">
         <v>408</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="9">
         <v>408</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="9">
         <v>343</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="9">
         <v>168</v>
       </c>
+      <c r="H31" s="9"/>
       <c r="I31" s="8">
         <f t="shared" si="0"/>
         <v>1327</v>
@@ -1416,18 +1575,20 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="D32">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9">
         <v>4</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="9">
         <v>34</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
         <v>4</v>
       </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1437,18 +1598,20 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="D33">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9">
         <v>4</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
         <v>2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="9">
         <v>0</v>
       </c>
+      <c r="H33" s="9"/>
       <c r="I33" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1458,24 +1621,49 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="G34">
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
         <v>0</v>
       </c>
+      <c r="H34" s="9"/>
       <c r="I34" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1484,22 +1672,22 @@
       <c r="B38" t="s">
         <v>93</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="9" t="s">
         <v>94</v>
       </c>
       <c r="I38" s="8" t="s">
@@ -1510,21 +1698,22 @@
       <c r="A39" t="s">
         <v>21</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="9">
         <v>7637</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="9">
         <v>7719</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="9">
         <v>4040</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="9">
         <v>5450</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="9">
         <v>5256</v>
       </c>
+      <c r="H39" s="9"/>
       <c r="I39" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>30102</v>
@@ -1534,21 +1723,22 @@
       <c r="A40" t="s">
         <v>22</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="9">
         <v>8128</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="9">
         <v>8278</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="9">
         <v>4505</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="9">
         <v>6770</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="9">
         <v>6110</v>
       </c>
+      <c r="H40" s="9"/>
       <c r="I40" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>33791</v>
@@ -1558,21 +1748,22 @@
       <c r="A41" t="s">
         <v>23</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="9">
         <v>6812</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="9">
         <v>8177</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="9">
         <v>3288</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="9">
         <v>7042</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="9">
         <v>4558</v>
       </c>
+      <c r="H41" s="9"/>
       <c r="I41" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>29877</v>
@@ -1582,21 +1773,22 @@
       <c r="A42" t="s">
         <v>24</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="9">
         <v>7725</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="9">
         <v>9001</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="9">
         <v>3553</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="9">
         <v>8232</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="9">
         <v>5411</v>
       </c>
+      <c r="H42" s="9"/>
       <c r="I42" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>33922</v>
@@ -1606,21 +1798,22 @@
       <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="9">
         <v>30302</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="9">
         <v>33175</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="9">
         <v>15386</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="9">
         <v>27603</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="9">
         <v>21335</v>
       </c>
+      <c r="H43" s="9"/>
       <c r="I43" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>127801</v>
@@ -1630,21 +1823,22 @@
       <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="9">
         <v>27374</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="9">
         <v>30593</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="9">
         <v>13744</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="9">
         <v>25638</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="9">
         <v>19725</v>
       </c>
+      <c r="H44" s="9"/>
       <c r="I44" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>117074</v>
@@ -1654,21 +1848,22 @@
       <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="9">
         <v>2928</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="9">
         <v>2582</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="9">
         <v>1642</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="9">
         <v>1965</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="9">
         <v>1610</v>
       </c>
+      <c r="H45" s="9"/>
       <c r="I45" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>10727</v>
@@ -1678,21 +1873,22 @@
       <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="9">
         <v>725</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="9">
         <v>668</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="9">
         <v>397</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="9">
         <v>667</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="9">
         <v>504</v>
       </c>
+      <c r="H46" s="9"/>
       <c r="I46" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>2961</v>
@@ -1702,21 +1898,22 @@
       <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="9">
         <v>530</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="9">
         <v>537</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="9">
         <v>278</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="9">
         <v>401</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="9">
         <v>281</v>
       </c>
+      <c r="H47" s="9"/>
       <c r="I47" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>2027</v>
@@ -1726,21 +1923,22 @@
       <c r="A48" t="s">
         <v>55</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="9">
         <v>905</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="9">
         <v>844</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="9">
         <v>398</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="9">
         <v>738</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="9">
         <v>576</v>
       </c>
+      <c r="H48" s="9"/>
       <c r="I48" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>3461</v>
@@ -1750,21 +1948,22 @@
       <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="9">
         <v>130</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="9">
         <v>111</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="9">
         <v>45</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="9">
         <v>86</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="9">
         <v>92</v>
       </c>
+      <c r="H49" s="9"/>
       <c r="I49" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>464</v>
@@ -1774,21 +1973,22 @@
       <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="9">
         <v>63</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="9">
         <v>57</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="9">
         <v>30</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="9">
         <v>42</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="9">
         <v>26</v>
       </c>
+      <c r="H50" s="9"/>
       <c r="I50" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>218</v>
@@ -1798,21 +1998,22 @@
       <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="9">
         <v>2523</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="9">
         <v>3596</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="9">
         <v>1988</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="9">
         <v>3006</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="9">
         <v>2134</v>
       </c>
+      <c r="H51" s="9"/>
       <c r="I51" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>13247</v>
@@ -1822,21 +2023,22 @@
       <c r="A52" t="s">
         <v>70</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="9">
         <v>2818</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="9">
         <v>3530</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="9">
         <v>1981</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="9">
         <v>2209</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="9">
         <v>2058</v>
       </c>
+      <c r="H52" s="9"/>
       <c r="I52" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>12596</v>
@@ -1846,6 +2048,12 @@
       <c r="A53" t="s">
         <v>59</v>
       </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>0</v>
@@ -1855,6 +2063,12 @@
       <c r="A54" t="s">
         <v>60</v>
       </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>0</v>
@@ -1864,21 +2078,22 @@
       <c r="A55" t="s">
         <v>61</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="9">
         <v>8</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="9">
         <v>18</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="9">
         <v>12</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="9">
         <v>13</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="9">
         <v>10</v>
       </c>
+      <c r="H55" s="9"/>
       <c r="I55" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>61</v>
@@ -1888,21 +2103,22 @@
       <c r="A56" t="s">
         <v>62</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="9">
         <v>51</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="9">
         <v>44</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="9">
         <v>22</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="9">
         <v>56</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="9">
         <v>45</v>
       </c>
+      <c r="H56" s="9"/>
       <c r="I56" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>218</v>
@@ -1912,21 +2128,22 @@
       <c r="A57" t="s">
         <v>63</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="9">
         <v>43</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="9">
         <v>35</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="9">
         <v>26</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="9">
         <v>62</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="9">
         <v>57</v>
       </c>
+      <c r="H57" s="9"/>
       <c r="I57" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>223</v>
@@ -1936,21 +2153,22 @@
       <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="9">
         <v>61</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="9">
         <v>59</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="9">
         <v>36</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="9">
         <v>69</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="9">
         <v>69</v>
       </c>
+      <c r="H58" s="9"/>
       <c r="I58" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>294</v>
@@ -1960,21 +2178,22 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="9">
         <v>92</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="9">
         <v>108</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="9">
         <v>64</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="9">
         <v>100</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="9">
         <v>97</v>
       </c>
+      <c r="H59" s="9"/>
       <c r="I59" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>461</v>
@@ -1984,21 +2203,22 @@
       <c r="A60" t="s">
         <v>66</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="9">
         <v>24946</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="9">
         <v>23215</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="9">
         <v>9180</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="9">
         <v>17210</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="9">
         <v>12300</v>
       </c>
+      <c r="H60" s="9"/>
       <c r="I60" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>86851</v>
@@ -2008,24 +2228,127 @@
       <c r="A61" t="s">
         <v>67</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="9">
         <v>93</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="9">
         <v>127</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="9">
         <v>61</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="9">
         <v>1232</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="9">
         <v>545</v>
       </c>
+      <c r="H61" s="9"/>
       <c r="I61" s="8">
         <f>SUM(Tabelle57[[#This Row],[_4-12]:[_04-14]])</f>
         <v>2058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="10">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="11">
+        <f>SUM(I46:I47)</f>
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="11">
+        <f>I15</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="11">
+        <f>I50</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="12">
+        <f>I60</f>
+        <v>86851</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="11">
+        <f>I16</f>
+        <v>121</v>
+      </c>
+      <c r="D72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="str">
+        <f>A17</f>
+        <v>Squint Surgery</v>
+      </c>
+      <c r="B74" s="10">
+        <v>62</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="str">
+        <f>A23</f>
+        <v>Total Surgery</v>
+      </c>
+      <c r="B77" s="11">
+        <f>I23</f>
+        <v>2976</v>
       </c>
     </row>
   </sheetData>

--- a/surgery_and_outreach-data_total.xlsx
+++ b/surgery_and_outreach-data_total.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="109">
   <si>
     <t>Total Cataract Surgery</t>
   </si>
@@ -324,10 +324,28 @@
     <t>Vitamin A Caps distributed</t>
   </si>
   <si>
-    <t>Grauer Stahr</t>
-  </si>
-  <si>
     <t>Schielen</t>
+  </si>
+  <si>
+    <t>Refractive Errors</t>
+  </si>
+  <si>
+    <t>Xerophtalmia</t>
+  </si>
+  <si>
+    <t>461 spots treated for 294 patients</t>
+  </si>
+  <si>
+    <t>30-2 tests</t>
+  </si>
+  <si>
+    <t>Cataract Laser Treatments</t>
+  </si>
+  <si>
+    <t>Screening Facts: Outreach-camps</t>
+  </si>
+  <si>
+    <t>from: yag cap</t>
   </si>
 </sst>
 </file>
@@ -386,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +423,14 @@
         <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -455,24 +479,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -494,9 +505,11 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -887,15 +900,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I77"/>
+  <dimension ref="A2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
@@ -2253,7 +2266,7 @@
       <c r="A64" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="15">
         <v>1820</v>
       </c>
     </row>
@@ -2261,20 +2274,20 @@
       <c r="A65" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="15">
         <f>SUM(I46:I47)</f>
         <v>4988</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
+      <c r="B66" s="15"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="15">
         <f>I15</f>
         <v>88</v>
       </c>
@@ -2283,72 +2296,209 @@
       <c r="A68" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="15">
         <f>I50</f>
         <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="15"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="15">
         <f>I60</f>
         <v>86851</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
+      <c r="B71" s="15"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="15">
         <f>I16</f>
         <v>121</v>
       </c>
-      <c r="D72" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
+      <c r="B73" s="15"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="str">
         <f>A17</f>
         <v>Squint Surgery</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="15">
         <v>62</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
+      <c r="B75" s="15"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
+      <c r="B76" s="15"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="str">
         <f>A23</f>
         <v>Total Surgery</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="15">
         <f>I23</f>
         <v>2976</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" s="13">
+        <v>127801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="13">
+        <v>117074</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" s="13">
+        <v>10727</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="13">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="13">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="13">
+        <v>223</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="13">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="13">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="13">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="13">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="13">
+        <f>13247+12596</f>
+        <v>25843</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="13">
+        <v>86851</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="13">
+        <v>2058</v>
       </c>
     </row>
   </sheetData>

--- a/surgery_and_outreach-data_total.xlsx
+++ b/surgery_and_outreach-data_total.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="115">
   <si>
     <t>Total Cataract Surgery</t>
   </si>
@@ -346,6 +346,24 @@
   </si>
   <si>
     <t>from: yag cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facts: </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>zusammen</t>
+  </si>
+  <si>
+    <t>ist gleich wie shilong</t>
   </si>
 </sst>
 </file>
@@ -404,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -510,6 +534,10 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -900,15 +928,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I98"/>
+  <dimension ref="A2:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
@@ -2262,6 +2291,12 @@
         <v>2058</v>
       </c>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="10"/>
+    </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>96</v>
@@ -2269,236 +2304,276 @@
       <c r="B64" s="15">
         <v>1820</v>
       </c>
+      <c r="C64" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="18">
         <f>SUM(I46:I47)</f>
         <v>4988</v>
       </c>
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="15">
+        <f>I15</f>
+        <v>88</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B67" s="15">
-        <f>I15</f>
-        <v>88</v>
+        <f>I50</f>
+        <v>218</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B68" s="15">
-        <f>I50</f>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="15"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="15">
         <f>I60</f>
         <v>86851</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="15"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B69" s="15">
         <f>I16</f>
         <v>121</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="15"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="str">
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="str">
         <f>A17</f>
         <v>Squint Surgery</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B70" s="15">
         <v>62</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="15"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="15"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="str">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="str">
         <f>A23</f>
         <v>Total Surgery</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B71" s="18">
         <f>I23</f>
         <v>2976</v>
       </c>
+      <c r="C71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="18">
+        <v>127801</v>
+      </c>
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="13">
+        <v>117074</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="13">
+        <v>10727</v>
+      </c>
+      <c r="C77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="13">
+        <v>2961</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="19">
+        <f>B78+B79</f>
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="13">
+        <v>2027</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" s="13"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" s="13">
-        <v>127801</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="13">
+        <v>223</v>
+      </c>
+      <c r="C80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="18">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="13">
+        <v>464</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="13">
+        <v>218</v>
+      </c>
+      <c r="C83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="18">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B85" s="13">
-        <v>117074</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="13">
-        <v>10727</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B87" s="13">
-        <v>2961</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" s="13">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89" s="13">
-        <v>223</v>
-      </c>
-      <c r="D89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B90" s="13">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="13">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="13">
         <v>218</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" s="13">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="13">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="C85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B86" s="18">
         <f>13247+12596</f>
         <v>25843</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
+      <c r="C86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B87" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+      <c r="E87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B88" s="18">
         <v>86851</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+      <c r="C88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B89" s="13">
         <v>2058</v>
+      </c>
+      <c r="C89" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
